--- a/_libHQCam2/Extended exposure_mode normal.xlsx
+++ b/_libHQCam2/Extended exposure_mode normal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\MIKRO\Mikrosensorik\Mitarbeiter\Hausladen\CCD\99 rPi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E218C703-C6D7-4EE2-88C4-3B23945F0C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60997C5-6EDB-4F2C-9E63-8BC84E10CEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="-3075" windowWidth="21600" windowHeight="18720" xr2:uid="{CC9E66A5-A3D5-4989-A1B7-762F7A3C08C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25212" xr2:uid="{CC9E66A5-A3D5-4989-A1B7-762F7A3C08C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>SS</t>
   </si>
@@ -52,6 +52,9 @@
   <si>
     <t>Extended 2</t>
   </si>
+  <si>
+    <t>Extended 3</t>
+  </si>
 </sst>
 </file>
 
@@ -60,7 +63,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,13 +71,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -86,10 +128,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -101,11 +148,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="5" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="Akzent1" xfId="4" builtinId="29"/>
+    <cellStyle name="Akzent2" xfId="1" builtinId="33"/>
+    <cellStyle name="Akzent4" xfId="2" builtinId="41"/>
+    <cellStyle name="Akzent6" xfId="3" builtinId="49"/>
+    <cellStyle name="Gut" xfId="5" builtinId="26"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -135,6 +198,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Exposure-Mode Vector Values</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -251,6 +369,294 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$3:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$3:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A11-42AA-B4D1-20611BE05511}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Extended 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-9167-4894-8670-A657417D8BA2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-31E5-47FA-B924-833AB3D80AF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Extended 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
@@ -274,47 +680,38 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$3:$C$15</c:f>
+              <c:f>Tabelle1!$G$3:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>750</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>3333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2500</c:v>
+                  <c:v>6666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7500</c:v>
+                  <c:v>33333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10000</c:v>
+                  <c:v>66666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>75000</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -322,48 +719,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$D$3:$D$15</c:f>
+              <c:f>Tabelle1!$H$3:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.125</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.375</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.625</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.75</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.875</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -371,118 +759,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6A11-42AA-B4D1-20611BE05511}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Extended 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tabelle1!$E$3:$E$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33333</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>66666</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tabelle1!$F$3:$F$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-31E5-47FA-B924-833AB3D80AF7}"/>
+              <c16:uniqueId val="{00000000-9167-4894-8670-A657417D8BA2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -502,6 +779,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -519,6 +797,75 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Shutter-Speed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -581,6 +928,80 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Allowed</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> Gain</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1599,10 +2020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627F70D9-A945-47C3-AB98-D8EA7BCC4D22}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F10"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1612,21 +2033,25 @@
     <col min="6" max="6" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1645,8 +2070,14 @@
       <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100</v>
       </c>
@@ -1665,8 +2096,14 @@
       <c r="F3" s="4">
         <v>1</v>
       </c>
+      <c r="G3" s="9">
+        <v>100</v>
+      </c>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10000</v>
       </c>
@@ -1680,13 +2117,19 @@
         <v>1.125</v>
       </c>
       <c r="E4">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="F4" s="4">
-        <v>1.25</v>
+        <v>1.2</v>
+      </c>
+      <c r="G4" s="9">
+        <v>333</v>
+      </c>
+      <c r="H4" s="10">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>30000</v>
       </c>
@@ -1700,13 +2143,19 @@
         <v>1.25</v>
       </c>
       <c r="E5">
-        <v>1000</v>
+        <v>666</v>
       </c>
       <c r="F5" s="4">
-        <v>1.4</v>
+        <v>1.35</v>
+      </c>
+      <c r="G5" s="9">
+        <v>666</v>
+      </c>
+      <c r="H5" s="10">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>60000</v>
       </c>
@@ -1720,13 +2169,19 @@
         <v>1.375</v>
       </c>
       <c r="E6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="F6" s="4">
-        <v>1.75</v>
+        <v>1.4</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>66666</v>
       </c>
@@ -1740,13 +2195,19 @@
         <v>1.5</v>
       </c>
       <c r="E7">
-        <v>10000</v>
+        <v>3333</v>
       </c>
       <c r="F7" s="4">
-        <v>2</v>
+        <v>1.625</v>
+      </c>
+      <c r="G7" s="9">
+        <v>3333</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>2500</v>
       </c>
@@ -1754,13 +2215,19 @@
         <v>1.625</v>
       </c>
       <c r="E8">
-        <v>33333</v>
+        <v>6666</v>
       </c>
       <c r="F8" s="4">
-        <v>3.3</v>
+        <v>1.8</v>
+      </c>
+      <c r="G8" s="9">
+        <v>6666</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>5000</v>
       </c>
@@ -1768,13 +2235,19 @@
         <v>1.75</v>
       </c>
       <c r="E9">
-        <v>66666</v>
+        <v>10000</v>
       </c>
       <c r="F9" s="4">
-        <v>5.25</v>
+        <v>2</v>
+      </c>
+      <c r="G9" s="9">
+        <v>10000</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>7500</v>
       </c>
@@ -1782,29 +2255,59 @@
         <v>1.875</v>
       </c>
       <c r="E10">
-        <v>100000</v>
+        <v>33333</v>
       </c>
       <c r="F10" s="4">
-        <v>8</v>
+        <v>3.3</v>
+      </c>
+      <c r="G10" s="9">
+        <v>33333</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>10000</v>
       </c>
       <c r="D11" s="4">
         <v>2</v>
       </c>
+      <c r="E11">
+        <v>66666</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5.25</v>
+      </c>
+      <c r="G11" s="9">
+        <v>66666</v>
+      </c>
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>25000</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
       </c>
+      <c r="E12">
+        <v>100000</v>
+      </c>
+      <c r="F12" s="4">
+        <v>8</v>
+      </c>
+      <c r="G12" s="9">
+        <v>100000</v>
+      </c>
+      <c r="H12" s="10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>50000</v>
       </c>
@@ -1812,7 +2315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>75000</v>
       </c>
@@ -1820,7 +2323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>100000</v>
       </c>
@@ -1829,10 +2332,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
